--- a/Experiments/Measurements/Single Banner Vertical/Straight path/Antenna_2/Transformed_Coordinates.xlsx
+++ b/Experiments/Measurements/Single Banner Vertical/Straight path/Antenna_2/Transformed_Coordinates.xlsx
@@ -499,7 +499,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>95.13864341594623</v>
+        <v>95.13864341594622</v>
       </c>
       <c r="H2" t="n">
         <v>101.0033138007377</v>
@@ -589,7 +589,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>99.62167217386875</v>
+        <v>99.62167217386876</v>
       </c>
       <c r="H5" t="n">
         <v>105.2234656379233</v>
@@ -645,10 +645,10 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>116.1915713733739</v>
+        <v>116.1915713733738</v>
       </c>
       <c r="H7" t="n">
-        <v>83.96637431664986</v>
+        <v>83.96637431664989</v>
       </c>
     </row>
     <row r="8">
@@ -678,7 +678,7 @@
         <v>159.6006693522518</v>
       </c>
       <c r="H8" t="n">
-        <v>71.86820867399942</v>
+        <v>71.86820867399943</v>
       </c>
     </row>
     <row r="9">
@@ -765,10 +765,10 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>99.82659971222829</v>
+        <v>99.8265997122283</v>
       </c>
       <c r="H11" t="n">
-        <v>77.36465189249977</v>
+        <v>77.36465189249975</v>
       </c>
     </row>
     <row r="12">
@@ -795,10 +795,10 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>99.75538881679947</v>
+        <v>99.75538881679948</v>
       </c>
       <c r="H12" t="n">
-        <v>72.98573745517406</v>
+        <v>72.98573745517403</v>
       </c>
     </row>
     <row r="13">
@@ -828,7 +828,7 @@
         <v>131.5777899658041</v>
       </c>
       <c r="H13" t="n">
-        <v>66.95770802419055</v>
+        <v>66.95770802419058</v>
       </c>
     </row>
     <row r="14">
@@ -855,10 +855,10 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>95.11984003541173</v>
+        <v>95.11984003541171</v>
       </c>
       <c r="H14" t="n">
-        <v>71.00582330248228</v>
+        <v>71.00582330248231</v>
       </c>
     </row>
     <row r="15">
@@ -945,10 +945,10 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>99.66826820929614</v>
+        <v>99.66826820929616</v>
       </c>
       <c r="H17" t="n">
-        <v>76.84438505760482</v>
+        <v>76.8443850576048</v>
       </c>
     </row>
     <row r="18">
@@ -975,10 +975,10 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>80.77015815586419</v>
+        <v>80.77015815586421</v>
       </c>
       <c r="H18" t="n">
-        <v>87.88325295778172</v>
+        <v>87.88325295778169</v>
       </c>
     </row>
     <row r="19">
@@ -1008,7 +1008,7 @@
         <v>119.2133310537934</v>
       </c>
       <c r="H19" t="n">
-        <v>83.02995703278255</v>
+        <v>83.02995703278256</v>
       </c>
     </row>
     <row r="20">
@@ -1038,7 +1038,7 @@
         <v>104.912963279428</v>
       </c>
       <c r="H20" t="n">
-        <v>99.89089851224983</v>
+        <v>99.89089851224985</v>
       </c>
     </row>
     <row r="21">
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>99.12721924808932</v>
+        <v>99.12721924808933</v>
       </c>
       <c r="H23" t="n">
         <v>104.0979045683074</v>
@@ -1155,10 +1155,10 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>128.3183938539415</v>
+        <v>128.3183938539414</v>
       </c>
       <c r="H24" t="n">
-        <v>71.42483305860699</v>
+        <v>71.42483305860704</v>
       </c>
     </row>
     <row r="25">
@@ -1185,7 +1185,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>91.41110576960531</v>
+        <v>91.4111057696053</v>
       </c>
       <c r="H25" t="n">
         <v>110.703897200252</v>
@@ -1215,7 +1215,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>36.53001138391587</v>
+        <v>36.5300113839159</v>
       </c>
       <c r="H26" t="n">
         <v>111.7312330395347</v>
@@ -1245,7 +1245,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>94.03651854328518</v>
+        <v>94.03651854328515</v>
       </c>
       <c r="H27" t="n">
         <v>109.3047993584291</v>
@@ -1338,7 +1338,7 @@
         <v>129.6114306327486</v>
       </c>
       <c r="H30" t="n">
-        <v>83.65698445117334</v>
+        <v>83.65698445117339</v>
       </c>
     </row>
     <row r="31">
@@ -1368,7 +1368,7 @@
         <v>124.7177392569837</v>
       </c>
       <c r="H31" t="n">
-        <v>79.06742772640165</v>
+        <v>79.06742772640163</v>
       </c>
     </row>
     <row r="32">
@@ -1395,10 +1395,10 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>95.84985200983709</v>
+        <v>95.84985200983708</v>
       </c>
       <c r="H32" t="n">
-        <v>72.37739194860355</v>
+        <v>72.37739194860359</v>
       </c>
     </row>
     <row r="33">
@@ -1428,7 +1428,7 @@
         <v>104.5729211526404</v>
       </c>
       <c r="H33" t="n">
-        <v>82.63521156719403</v>
+        <v>82.63521156719406</v>
       </c>
     </row>
     <row r="34">
@@ -1458,7 +1458,7 @@
         <v>144.6827689936534</v>
       </c>
       <c r="H34" t="n">
-        <v>77.32909131785462</v>
+        <v>77.32909131785456</v>
       </c>
     </row>
     <row r="35">
@@ -1485,10 +1485,10 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>85.95945287568354</v>
+        <v>85.95945287568357</v>
       </c>
       <c r="H35" t="n">
-        <v>90.97798416111142</v>
+        <v>90.97798416111139</v>
       </c>
     </row>
     <row r="36">
@@ -1518,7 +1518,7 @@
         <v>129.6225539145515</v>
       </c>
       <c r="H36" t="n">
-        <v>96.07761446540084</v>
+        <v>96.07761446540087</v>
       </c>
     </row>
     <row r="37">
@@ -1548,7 +1548,7 @@
         <v>134.5740356574848</v>
       </c>
       <c r="H37" t="n">
-        <v>71.29099579973436</v>
+        <v>71.29099579973439</v>
       </c>
     </row>
     <row r="38">
@@ -1608,7 +1608,7 @@
         <v>120.4314179771831</v>
       </c>
       <c r="H39" t="n">
-        <v>69.02037125715943</v>
+        <v>69.02037125715937</v>
       </c>
     </row>
     <row r="40">
@@ -1638,7 +1638,7 @@
         <v>109.6824665564566</v>
       </c>
       <c r="H40" t="n">
-        <v>72.7642845516195</v>
+        <v>72.76428455161953</v>
       </c>
     </row>
     <row r="41">
@@ -1665,10 +1665,10 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>126.8421203436342</v>
+        <v>126.8421203436343</v>
       </c>
       <c r="H41" t="n">
-        <v>69.74072542497539</v>
+        <v>69.74072542497534</v>
       </c>
     </row>
     <row r="42">
@@ -1728,7 +1728,7 @@
         <v>106.6764667650346</v>
       </c>
       <c r="H43" t="n">
-        <v>70.34101540061323</v>
+        <v>70.34101540061322</v>
       </c>
     </row>
     <row r="44">
@@ -1788,7 +1788,7 @@
         <v>113.1215102152204</v>
       </c>
       <c r="H45" t="n">
-        <v>90.02628002300126</v>
+        <v>90.02628002300123</v>
       </c>
     </row>
     <row r="46">
@@ -1815,10 +1815,10 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>116.4345523483245</v>
+        <v>116.4345523483244</v>
       </c>
       <c r="H46" t="n">
-        <v>94.88996434509585</v>
+        <v>94.88996434509588</v>
       </c>
     </row>
     <row r="47">
@@ -1848,7 +1848,7 @@
         <v>109.6567100698254</v>
       </c>
       <c r="H47" t="n">
-        <v>77.6568013136733</v>
+        <v>77.65680131367331</v>
       </c>
     </row>
     <row r="48">
@@ -1878,7 +1878,7 @@
         <v>118.7151652472089</v>
       </c>
       <c r="H48" t="n">
-        <v>77.35173923294482</v>
+        <v>77.35173923294484</v>
       </c>
     </row>
     <row r="49">
@@ -1908,7 +1908,7 @@
         <v>113.8246838693085</v>
       </c>
       <c r="H49" t="n">
-        <v>77.2066232977197</v>
+        <v>77.20662329771964</v>
       </c>
     </row>
     <row r="50">
@@ -1935,10 +1935,10 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>109.4027052487945</v>
+        <v>109.4027052487944</v>
       </c>
       <c r="H50" t="n">
-        <v>85.41177482017476</v>
+        <v>85.41177482017478</v>
       </c>
     </row>
     <row r="51">
@@ -1965,10 +1965,10 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>103.7673002349386</v>
+        <v>103.7673002349387</v>
       </c>
       <c r="H51" t="n">
-        <v>84.15988956750427</v>
+        <v>84.15988956750422</v>
       </c>
     </row>
   </sheetData>
